--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 05 MAYO 2024/CREDITOS ZAVALETA   MAYO  2024.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO  2 0 2 4/CENTRAL 05 MAYO 2024/CREDITOS ZAVALETA   MAYO  2024.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11025" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="11025" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -883,61 +883,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="16" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,6 +918,75 @@
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="41" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,21 +998,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,8 +1583,8 @@
   </sheetPr>
   <dimension ref="A2:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1601,17 +1601,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -2090,8 +2090,8 @@
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
       <c r="E29" s="43"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="44"/>
       <c r="J29" s="45">
         <f>J28+I29</f>
@@ -2115,11 +2115,11 @@
       <c r="C31" s="48"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
-      <c r="G31" s="78" t="s">
+      <c r="G31" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="H31" s="79"/>
-      <c r="I31" s="80"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -2128,9 +2128,9 @@
       <c r="C32" s="49"/>
       <c r="D32" s="50"/>
       <c r="E32" s="43"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="83"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -2138,9 +2138,9 @@
       <c r="C33" s="49"/>
       <c r="D33" s="50"/>
       <c r="E33" s="43"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="83"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -2148,9 +2148,9 @@
       <c r="C34" s="49"/>
       <c r="D34" s="50"/>
       <c r="E34" s="43"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="83"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -2158,9 +2158,9 @@
       <c r="C35" s="49"/>
       <c r="D35" s="51"/>
       <c r="E35" s="43"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="83"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -2169,9 +2169,9 @@
       <c r="D36" s="51"/>
       <c r="E36" s="43"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="103"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -2180,9 +2180,9 @@
       <c r="D37" s="51"/>
       <c r="E37" s="43"/>
       <c r="F37" s="52"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
@@ -2190,9 +2190,9 @@
       <c r="C38" s="49"/>
       <c r="D38" s="51"/>
       <c r="E38" s="43"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
     </row>
     <row r="39" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -2382,8 +2382,8 @@
   </sheetPr>
   <dimension ref="A2:S61"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2400,17 +2400,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
     </row>
     <row r="3" spans="2:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="1" t="s">
@@ -2433,12 +2433,18 @@
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="B4" s="7">
+        <v>45419</v>
+      </c>
+      <c r="C4" s="8">
+        <v>45422</v>
+      </c>
+      <c r="D4" s="9">
+        <v>56511.5</v>
+      </c>
       <c r="E4" s="10">
         <f>D4</f>
-        <v>0</v>
+        <v>56511.5</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="12"/>
@@ -2446,23 +2452,29 @@
       <c r="I4" s="14"/>
       <c r="J4" s="15">
         <f>E28+I4</f>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="12">
+        <v>45420</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45422</v>
+      </c>
+      <c r="D5" s="9">
+        <v>36283</v>
+      </c>
       <c r="E5" s="15">
         <f>E4+D5</f>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15">
         <f>J4+I5</f>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -2471,7 +2483,7 @@
       <c r="D6" s="19"/>
       <c r="E6" s="15">
         <f t="shared" ref="E6:E28" si="0">E5+D6</f>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="12"/>
@@ -2479,7 +2491,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="15">
         <f t="shared" ref="J6:J28" si="1">J5+I6</f>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -2488,7 +2500,7 @@
       <c r="D7" s="19"/>
       <c r="E7" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="12"/>
@@ -2496,7 +2508,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -2505,14 +2517,14 @@
       <c r="D8" s="19"/>
       <c r="E8" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="I8" s="17"/>
       <c r="J8" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
@@ -2521,14 +2533,14 @@
       <c r="D9" s="19"/>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="18"/>
       <c r="I9" s="19"/>
       <c r="J9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -2537,14 +2549,14 @@
       <c r="D10" s="74"/>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="18"/>
       <c r="I10" s="19"/>
       <c r="J10" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -2553,14 +2565,14 @@
       <c r="D11" s="9"/>
       <c r="E11" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="18"/>
       <c r="I11" s="19"/>
       <c r="J11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
@@ -2569,14 +2581,14 @@
       <c r="D12" s="20"/>
       <c r="E12" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="18"/>
       <c r="I12" s="19"/>
       <c r="J12" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -2585,14 +2597,14 @@
       <c r="D13" s="20"/>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
       <c r="I13" s="9"/>
       <c r="J13" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -2601,14 +2613,14 @@
       <c r="D14" s="20"/>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="18"/>
       <c r="I14" s="9"/>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
@@ -2617,14 +2629,14 @@
       <c r="D15" s="20"/>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="18"/>
       <c r="I15" s="9"/>
       <c r="J15" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -2633,14 +2645,14 @@
       <c r="D16" s="20"/>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="18"/>
       <c r="I16" s="9"/>
       <c r="J16" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -2649,14 +2661,14 @@
       <c r="D17" s="20"/>
       <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="13"/>
       <c r="I17" s="9"/>
       <c r="J17" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -2665,14 +2677,14 @@
       <c r="D18" s="20"/>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="26"/>
       <c r="I18" s="9"/>
       <c r="J18" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -2681,7 +2693,7 @@
       <c r="D19" s="20"/>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="26" t="s">
@@ -2690,7 +2702,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -2699,14 +2711,14 @@
       <c r="D20" s="20"/>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="26"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -2715,14 +2727,14 @@
       <c r="D21" s="20"/>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="26"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -2731,14 +2743,14 @@
       <c r="D22" s="20"/>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="26"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -2747,14 +2759,14 @@
       <c r="D23" s="20"/>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="26"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -2763,14 +2775,14 @@
       <c r="D24" s="20"/>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="26"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -2779,14 +2791,14 @@
       <c r="D25" s="20"/>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="26"/>
       <c r="I25" s="27"/>
       <c r="J25" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -2795,14 +2807,14 @@
       <c r="D26" s="20"/>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="26"/>
       <c r="I26" s="27"/>
       <c r="J26" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2811,14 +2823,14 @@
       <c r="D27" s="20"/>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="29"/>
       <c r="I27" s="30"/>
       <c r="J27" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="27" thickBot="1" x14ac:dyDescent="0.45">
@@ -2827,7 +2839,7 @@
       <c r="D28" s="33"/>
       <c r="E28" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>92794.5</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="36">
@@ -2839,7 +2851,7 @@
       </c>
       <c r="J28" s="20">
         <f t="shared" si="1"/>
-        <v>-234656.2</v>
+        <v>-141861.70000000001</v>
       </c>
       <c r="O28" s="70"/>
       <c r="P28" s="57"/>
@@ -2853,12 +2865,12 @@
       <c r="C29" s="41"/>
       <c r="D29" s="42"/>
       <c r="E29" s="43"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="97"/>
       <c r="I29" s="44"/>
       <c r="J29" s="45">
         <f>J28+I29</f>
-        <v>-234656.2</v>
+        <v>-141861.70000000001</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.3">
@@ -2878,9 +2890,9 @@
       <c r="C31" s="48"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
-      <c r="G31" s="78"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="80"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="47"/>
     </row>
     <row r="32" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -2889,9 +2901,9 @@
       <c r="C32" s="49"/>
       <c r="D32" s="50"/>
       <c r="E32" s="43"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="83"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="103"/>
     </row>
     <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="39"/>
@@ -2899,9 +2911,9 @@
       <c r="C33" s="49"/>
       <c r="D33" s="50"/>
       <c r="E33" s="43"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="83"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="103"/>
     </row>
     <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="39"/>
@@ -2909,9 +2921,9 @@
       <c r="C34" s="49"/>
       <c r="D34" s="50"/>
       <c r="E34" s="43"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="83"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="103"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="39"/>
@@ -2919,9 +2931,9 @@
       <c r="C35" s="49"/>
       <c r="D35" s="51"/>
       <c r="E35" s="43"/>
-      <c r="G35" s="81"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="83"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="103"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="39"/>
@@ -2930,9 +2942,9 @@
       <c r="D36" s="51"/>
       <c r="E36" s="43"/>
       <c r="F36" s="52"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="83"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="103"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="39"/>
@@ -2941,9 +2953,9 @@
       <c r="D37" s="51"/>
       <c r="E37" s="43"/>
       <c r="F37" s="52"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="83"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="39"/>
@@ -2951,9 +2963,9 @@
       <c r="C38" s="49"/>
       <c r="D38" s="51"/>
       <c r="E38" s="43"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="86"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="106"/>
     </row>
     <row r="39" spans="1:10" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A39" s="39"/>
@@ -3142,7 +3154,7 @@
   </sheetPr>
   <dimension ref="C10:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
@@ -3153,104 +3165,104 @@
   </cols>
   <sheetData>
     <row r="10" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="87"/>
+      <c r="F10" s="75"/>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
     </row>
     <row r="12" spans="4:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="91"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
     </row>
     <row r="13" spans="4:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D13" s="94" t="s">
+      <c r="D13" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="77">
         <v>1652429.8</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="4:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="98">
+      <c r="E14" s="80">
         <v>-726469.5</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="81" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="97" t="s">
+      <c r="D15" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="100"/>
-      <c r="F15" s="99"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="4:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="85"/>
     </row>
     <row r="17" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="97"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="104"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="86"/>
     </row>
     <row r="18" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="107"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
     </row>
     <row r="19" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="108"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="105"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="108"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="3:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D21" s="109"/>
-      <c r="E21" s="110">
+      <c r="D21" s="91"/>
+      <c r="E21" s="92">
         <v>0</v>
       </c>
-      <c r="F21" s="111"/>
+      <c r="F21" s="93"/>
     </row>
     <row r="22" spans="3:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="116" t="s">
+      <c r="C22" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="112">
+      <c r="D22" s="114"/>
+      <c r="E22" s="117">
         <f>SUM(E13:E21)</f>
         <v>925960.3</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="119" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="118"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="120"/>
     </row>
     <row r="24" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F24" s="120">
+      <c r="F24" s="94">
         <v>45422</v>
       </c>
     </row>
